--- a/варианты 2024/шастинибах/в2/22_18046.xlsx
+++ b/варианты 2024/шастинибах/в2/22_18046.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjhgb\PycharmProjects\isakovich2023\варианты 2024\шастинибах\в2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{054F1C0B-CE18-49D2-9F95-BAD1D34FDFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,12 +47,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -73,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -81,6 +81,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -353,28 +354,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.85546875" customWidth="1"/>
+    <col min="6" max="34" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,8 +385,95 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1">
+        <v>6</v>
+      </c>
+      <c r="L1">
+        <v>7</v>
+      </c>
+      <c r="M1">
+        <v>8</v>
+      </c>
+      <c r="N1">
+        <v>9</v>
+      </c>
+      <c r="O1">
+        <v>10</v>
+      </c>
+      <c r="P1">
+        <v>11</v>
+      </c>
+      <c r="Q1">
+        <v>12</v>
+      </c>
+      <c r="R1">
+        <v>13</v>
+      </c>
+      <c r="S1">
+        <v>14</v>
+      </c>
+      <c r="T1">
+        <v>15</v>
+      </c>
+      <c r="U1">
+        <v>16</v>
+      </c>
+      <c r="V1">
+        <v>17</v>
+      </c>
+      <c r="W1">
+        <v>18</v>
+      </c>
+      <c r="X1">
+        <v>19</v>
+      </c>
+      <c r="Y1">
+        <v>20</v>
+      </c>
+      <c r="Z1">
+        <v>21</v>
+      </c>
+      <c r="AA1">
+        <v>22</v>
+      </c>
+      <c r="AB1">
+        <v>23</v>
+      </c>
+      <c r="AC1">
+        <v>24</v>
+      </c>
+      <c r="AD1">
+        <v>25</v>
+      </c>
+      <c r="AE1">
+        <v>26</v>
+      </c>
+      <c r="AF1">
+        <v>27</v>
+      </c>
+      <c r="AG1">
+        <v>28</v>
+      </c>
+      <c r="AH1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -395,8 +483,33 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="b">
+        <f>SUM(F2:AH2)=B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -406,8 +519,21 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="b">
+        <f t="shared" ref="AI3:AI13" si="0">SUM(F3:AH3)=B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -417,8 +543,30 @@
       <c r="C4" s="2">
         <v>4.3055555555555555E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -428,8 +576,27 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -439,8 +606,36 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -450,8 +645,33 @@
       <c r="C7" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="3">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -461,8 +681,24 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="3">
+        <v>7</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -472,8 +708,30 @@
       <c r="C9" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="3">
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AI9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -483,8 +741,36 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" s="3">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -494,8 +780,33 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -505,8 +816,42 @@
       <c r="C12" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" s="3">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -516,8 +861,187 @@
       <c r="C13" s="1">
         <v>10</v>
       </c>
+      <c r="E13" s="3">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>COUNT(F2:F13)</f>
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:AH14" si="1">COUNT(G2:G13)</f>
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F14:AH14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:AH13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>